--- a/src/main/resources/excel/students.xlsx
+++ b/src/main/resources/excel/students.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="9">
   <si>
     <t>Gyan</t>
   </si>
@@ -397,96 +397,92 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>102.0</v>
+        <v>103.0</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>32.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>103.0</v>
+        <v>104.0</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>36.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5"/>
       <c r="D5" t="n">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>104.0</v>
+        <v>106.0</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>32.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B7"/>
-      <c r="C7"/>
+        <v>106.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
       <c r="D7" t="n">
-        <v>0.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8"/>
       <c r="D8" t="n">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>106.0</v>
+        <v>102.0</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>40.0</v>
+        <v>33.0</v>
       </c>
     </row>
   </sheetData>
